--- a/03-output/AMZN_stock.xlsx
+++ b/03-output/AMZN_stock.xlsx
@@ -9055,16 +9055,16 @@
         <v>175.6999969482422</v>
       </c>
       <c r="D280" t="n">
-        <v>176.3600006103516</v>
+        <v>176.3699951171875</v>
       </c>
       <c r="E280" t="n">
-        <v>174.2700042724609</v>
+        <v>174.2599945068359</v>
       </c>
       <c r="F280" t="n">
         <v>174.7299957275391</v>
       </c>
       <c r="G280" t="n">
-        <v>40160992</v>
+        <v>40187900</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>

--- a/03-output/AMZN_stock.xlsx
+++ b/03-output/AMZN_stock.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB1077"/>
+  <dimension ref="A1:AB1076"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87590,90 +87590,7 @@
         <v>2308</v>
       </c>
       <c r="AB1076" t="n">
-        <v>32.67660522460938</v>
-      </c>
-    </row>
-    <row r="1077">
-      <c r="B1077" s="3" t="n">
-        <v>45352</v>
-      </c>
-      <c r="C1077" t="n">
-        <v>176.75</v>
-      </c>
-      <c r="D1077" t="n">
-        <v>178.7299957275391</v>
-      </c>
-      <c r="E1077" t="n">
-        <v>176.0700073242188</v>
-      </c>
-      <c r="F1077" t="n">
-        <v>178.2200012207031</v>
-      </c>
-      <c r="G1077" t="n">
-        <v>31956200</v>
-      </c>
-      <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="J1077" t="n">
-        <v>13.10999965667725</v>
-      </c>
-      <c r="K1077" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L1077" t="n">
-        <v>13.50399990081787</v>
-      </c>
-      <c r="M1077" t="n">
-        <v>14.12733338673909</v>
-      </c>
-      <c r="N1077" t="n">
-        <v>175.2819976806641</v>
-      </c>
-      <c r="O1077" t="n">
-        <v>172.4913319905599</v>
-      </c>
-      <c r="P1077" t="n">
-        <v>57.02049452132566</v>
-      </c>
-      <c r="Q1077" t="n">
-        <v>173.2255683971727</v>
-      </c>
-      <c r="R1077" t="n">
-        <v>168.8423343026925</v>
-      </c>
-      <c r="S1077" t="n">
-        <v>4.383234094480258</v>
-      </c>
-      <c r="T1077" t="n">
-        <v>4.317044815631657</v>
-      </c>
-      <c r="U1077" t="n">
-        <v>1</v>
-      </c>
-      <c r="V1077" t="n">
-        <v>1</v>
-      </c>
-      <c r="W1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="X1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA1077" t="n">
-        <v>2308</v>
-      </c>
-      <c r="AB1077" t="n">
-        <v>411364.4394226074</v>
+        <v>407994.743927002</v>
       </c>
     </row>
   </sheetData>
@@ -87723,7 +87640,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8625954198473282</v>
+        <v>0.8624641833810889</v>
       </c>
     </row>
     <row r="7">
@@ -87733,7 +87650,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9244935543278084</v>
+        <v>0.9243542435424354</v>
       </c>
     </row>
     <row r="8">
@@ -87743,7 +87660,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8297520661157025</v>
+        <v>0.8294701986754967</v>
       </c>
     </row>
     <row r="9">
@@ -87753,7 +87670,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8745644599303136</v>
+        <v>0.8743455497382199</v>
       </c>
     </row>
     <row r="10"/>
